--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -220,7 +220,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">4000</t>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">4000</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
+    <t xml:space="preserve">[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -516,7 +516,7 @@
   <dimension ref="A1:BO1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE453D9E-D1BA-41B7-8C60-24A4331C1A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F8100-C233-4F9A-9C36-C2BB50365861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>พระราม4</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EB4DF-FF8D-4AD6-89E5-4E1199AB8713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517710AB-5307-4D62-9080-E0441C2ED769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>S935sLSi</t>
   </si>
   <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
     <t>2023-10-31</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>4000</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -620,6 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FAE1A-9718-4BFC-90A4-6F14DD8F5FDE}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -825,100 +826,100 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517710AB-5307-4D62-9080-E0441C2ED769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394D1C3-1D84-4A09-96DB-90218C28E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394D1C3-1D84-4A09-96DB-90218C28E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73AB569-70F9-414E-B441-64C0A5EF4E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="3225" windowHeight="2925" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,18 +266,18 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -627,55 +627,54 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.25" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="22" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73AB569-70F9-414E-B441-64C0A5EF4E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1CF27-9327-4778-A649-0BF3870B24B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="3225" windowHeight="2925" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,7 +266,7 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1CF27-9327-4778-A649-0BF3870B24B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2B893-1156-41BE-AA1A-F72BA90C14FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -324,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7EF04-3B29-4C22-AA70-0E90A306EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEE67C4-F932-4B2E-9CFC-C599CD79B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -324,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,7 +624,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEE67C4-F932-4B2E-9CFC-C599CD79B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E795A54-F996-4B07-80BC-E0583EA232FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="12915" windowHeight="12660" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 5/Auto_GeStamp_TSCD_TC5_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E795A54-F996-4B07-80BC-E0583EA232FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A95F49-FCD4-4EA8-B27D-12D965D717CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="12915" windowHeight="12660" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
+    <workbookView xWindow="3510" yWindow="2940" windowWidth="7305" windowHeight="13260" xr2:uid="{6D8415BE-3C6D-497C-9ED3-9039D8FF4C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
